--- a/biology/Médecine/PUVA-thérapie/PUVA-thérapie.xlsx
+++ b/biology/Médecine/PUVA-thérapie/PUVA-thérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PUVA-th%C3%A9rapie</t>
+          <t>PUVA-thérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La PUVA-thérapie est un traitement médical dans certaines maladies de la peau, et notamment le psoriasis. L'effet attendu dans ce cas est un effet proapoptotique (anti-prolifératif) sur les kératinocytes et un effet immunomodulateur (anti-inflammatoire). En effet, dans le psoriasis, les kératinocytes prolifèrent trop, ce qui entraîne en plus une inflammation locale.
 La PUVA est également indiquée dans d'autres dermatoses mais c'est plus rare et l'effet est moins important.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PUVA-th%C3%A9rapie</t>
+          <t>PUVA-thérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Les UVA</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est de la lumière, donc un rayonnement électromagnétique non ionisant.
 On distingue les UVA des UVB :
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PUVA-th%C3%A9rapie</t>
+          <t>PUVA-thérapie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Principe de la PUVA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Environ 1 à 2 heures après avoir administré du psoralène qui se répand dans l’organisme, on expose les zones à traiter à un rayonnement UVA. Dans les cellules exposées (kératinocytes ++), le psoralène s'active sous l'effet des UVA et forme des pontages interbrins entre deux brins d’ADN d’un même chromosome, ce qui mène la cellule à l’apoptose.
 Les patients restent debout pendant la séance, l'exposition peut être sur corps entier ou locale (une main par exemple).
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PUVA-th%C3%A9rapie</t>
+          <t>PUVA-thérapie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,6 +604,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PUVA-th%C3%A9rapie</t>
+          <t>PUVA-thérapie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,47 +631,120 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ils peuvent être précoces ou tardifs.
-Effets précoces
-Xérose et prurit
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent être précoces ou tardifs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PUVA-thérapie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PUVA-th%C3%A9rapie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Effets précoces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Xérose et prurit
 Conjontivite ou kératoconjonctivite d'où l'intérêt de porter des lunettes de protection dans la cabine
 Erythème phototoxique ou coup de soleil
 Nausées dues au psoralène
-Allergies au psoralène (rare)
-Effets tardifs
-Cataracte si pas de port des lunettes de protection
+Allergies au psoralène (rare)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PUVA-thérapie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PUVA-th%C3%A9rapie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Effets tardifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cataracte si pas de port des lunettes de protection
 Vieillissement prématuré de la peau
-Risques de cancer cutané. Une étude rétrospective sur 106 malades ayant reçu un traitement d'au moins 150 séances pour traiter un psoriasis a montré que 14 d'entre eux avaient développé au moins un carcinome  (carcinome épidermoïde invasif (8 malades), carcinome basocellulaire (5 malades) et carcinome épidermoïde in situ (5 malades), ce qui implique un suivi dermatologique à vie[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PUVA-th%C3%A9rapie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+Risques de cancer cutané. Une étude rétrospective sur 106 malades ayant reçu un traitement d'au moins 150 séances pour traiter un psoriasis a montré que 14 d'entre eux avaient développé au moins un carcinome  (carcinome épidermoïde invasif (8 malades), carcinome basocellulaire (5 malades) et carcinome épidermoïde in situ (5 malades), ce qui implique un suivi dermatologique à vie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PUVA-thérapie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/PUVA-th%C3%A9rapie</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Contre-indications absolues</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Syndrome des nævus dysplasiques héréditaires
 Antécédent personnel de mélanome
